--- a/data/hotels_by_city/Denver/Denver_shard_82.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_82.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d225304-Reviews-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Tech-Center-South.h119127.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523490938362&amp;regionId=7838&amp;vip=false&amp;c=23adbbc3-b4e4-4bb8-bd2a-b1387b73462c&amp;mctc=9&amp;exp_dp=85.49&amp;exp_ts=1523490946251&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,328 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r551632945-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>225304</t>
+  </si>
+  <si>
+    <t>551632945</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>It was very nice. I would stay there again.  It was nice too have a full kitchen just wish you didn't have to ask for supplies.  It would have been nice if they were just in the room.  Even just the basics like glasses. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>It was very nice. I would stay there again.  It was nice too have a full kitchen just wish you didn't have to ask for supplies.  It would have been nice if they were just in the room.  Even just the basics like glasses. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r544797108-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>544797108</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Not as bad as the reviews make it sound</t>
+  </si>
+  <si>
+    <t>This is a very basic, bare bones hotel with the advantage of a full-size refrigerator and two hot plates as well as a microwave. It was perfectly clean and comfortable despite the chipped bath tile and bare bones walls painted a peculiar shade of beige.  If you want rock bottom cheapest and a place to sleep,this is perfectly fine.  Plus it is a two minute walk from a lovely breakfast place, Urban Egg.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>This is a very basic, bare bones hotel with the advantage of a full-size refrigerator and two hot plates as well as a microwave. It was perfectly clean and comfortable despite the chipped bath tile and bare bones walls painted a peculiar shade of beige.  If you want rock bottom cheapest and a place to sleep,this is perfectly fine.  Plus it is a two minute walk from a lovely breakfast place, Urban Egg.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r542635619-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>542635619</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Stay here it's clean people are great and it's a quiet location</t>
+  </si>
+  <si>
+    <t>I really enjoyed my trip thanks to these guys I will come and stay with them again anytime! The cleanest and best service I have found in a hotel this year!! Even friends of mine that came to visit me while I was close to them said they really enjoyed the location and cleanliness of the room! I was really surprised and proud that their overall service and cleanliness was the best of even some 4 star hotels I have stayed at! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my trip thanks to these guys I will come and stay with them again anytime! The cleanest and best service I have found in a hotel this year!! Even friends of mine that came to visit me while I was close to them said they really enjoyed the location and cleanliness of the room! I was really surprised and proud that their overall service and cleanliness was the best of even some 4 star hotels I have stayed at! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r524128654-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>524128654</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>if price all that matters, stay here.</t>
+  </si>
+  <si>
+    <t>Read the very few and limiting previous reviews. most said average, and i agree.  Initial impression was odd that they ask you to sign a NO Smoking form upon check in, only to have passed the staff smoking in the parking lot as i walked in. Literally parking lot is full of front desk staff and their butts. room is adequate, and bed was comfortable, but floor was filthy. i cleaned up a water spill, and white towel turned black.  the cost was OK, the room was fine, but some channels on the TV did not work, and the staff was aware, but seemingly no interest in having it ever fixed. so, i felt like a spring break hotel in Florida. dirty parking lot, TV not fully working, room floor dirty, staff tad limited in resources, but cost may outweigh all of that. plus its a great location.  so, as most confirm, its a OK hotel, don't expect much, as you wont receive. but it did become home for my time in Denver, and i was thankful for that experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Read the very few and limiting previous reviews. most said average, and i agree.  Initial impression was odd that they ask you to sign a NO Smoking form upon check in, only to have passed the staff smoking in the parking lot as i walked in. Literally parking lot is full of front desk staff and their butts. room is adequate, and bed was comfortable, but floor was filthy. i cleaned up a water spill, and white towel turned black.  the cost was OK, the room was fine, but some channels on the TV did not work, and the staff was aware, but seemingly no interest in having it ever fixed. so, i felt like a spring break hotel in Florida. dirty parking lot, TV not fully working, room floor dirty, staff tad limited in resources, but cost may outweigh all of that. plus its a great location.  so, as most confirm, its a OK hotel, don't expect much, as you wont receive. but it did become home for my time in Denver, and i was thankful for that experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r521344446-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>521344446</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Affordable &amp; pleasant stay</t>
+  </si>
+  <si>
+    <t>Arrived very early in the morning and oyr room was given away so we were upgraded for free. Great customer service. The room was very spacious, clean, shower had good pressure, bed was a bit small but comfortable. Pool was dirty at all times. Grab &amp; go breakfast was muffins, granola bars and coffee which were convenient.Overall a great stay and I recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Arrived very early in the morning and oyr room was given away so we were upgraded for free. Great customer service. The room was very spacious, clean, shower had good pressure, bed was a bit small but comfortable. Pool was dirty at all times. Grab &amp; go breakfast was muffins, granola bars and coffee which were convenient.Overall a great stay and I recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r515691794-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>515691794</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Too many other nearby options to settle for this one</t>
+  </si>
+  <si>
+    <t>I have stayed in Extended Stay Americas and know what I'm getting into. They are not very good, but they are what they are and are generally honest about it. Not this one.
+I would recommend that any traveler stay somewhere else. I would have-- and should have, except that I was stuck there due to a prepaid Priceline "Express Deal" that completely misrepresented the comparable hotels to this one.  I would have moved to any of those comparables in a minute if Priceline had exercised fair customer service and backed up its comparison to them. Priceline did not.
+Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after...I have stayed in Extended Stay Americas and know what I'm getting into. They are not very good, but they are what they are and are generally honest about it. Not this one.I would recommend that any traveler stay somewhere else. I would have-- and should have, except that I was stuck there due to a prepaid Priceline "Express Deal" that completely misrepresented the comparable hotels to this one.  I would have moved to any of those comparables in a minute if Priceline had exercised fair customer service and backed up its comparison to them. Priceline did not.Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after 8 pm on August 19, the front desk clerk was sitting (yes sitting) on the front curb right in the middle of the walkway to the front door of the hotel, smoking. Like everyone else-- but me-- he threw his butt somewhere in front of the hotel when he went back inside.Here is a list of other things that should make you avoid staying here. I was traveling with my mother and asked for a room with two beds. They said they did not have any such rooms, so I slept on the sofabed. It was the worst sofabed I've ever slept on in my life. In retrospect, I probably would have been much better off on the floor.They gave me linens and a blanket for the sofabed. The blanket was wrapped in plastic. When I put it on the sofabed, I saw two dark blobs on it. I looked closely and discovered two clumps of hair  like the clumps you would find in a shower drain. I took the blanket downstairs and showed it to the woman at the desk (who was a laundry person and didn't speak English). She made a "eeew, yuck" face but told me that she did not have any blankets. She gave me a bedspread.When we checked in, a cockroach ran across the floor behind the clerk.They did not clean our room the entire time we were there. We only had one trash can for a room with a kitchen and a bathroom. I know Extended Stay does not clean every day, but I thought once in four nights might have been reasonable and I think one trash can is not enough for a room that size with a kitchen.Wifi is very slow if you choose the free version. You can pay for faster wifi. I did not. Why would they try to gouge guests on wifi in this day and age? It just does not speak well of the company. It's like the poor service and customer gouging one expects flying economy on a bad airline.The entrance is dirty and tattered. The floor and mats are dirty, and the mats look worn out. The room, bathroom, and kitchen are actually not bad. How hard would it be to keep the front entrance at least presentable? It never was for our four night stay.We checked out at 4 am to go to the airport. I say checked out, but nobody was at the front desk and nobody answered the phone next to the little sign saying to call if nobody is there. I haven't checked the bill online but hope I didn't get charged a special "self-checkout" fee or something.I did notice, as I waited for the cab, a car parked in a disabled parking spot in front of the hotel. The car did not have a disability placard. My guess would be that the car belongs to the front desk person I couldn't find to check out. That's the kind of place this hotel is.I blame Priceline more than Extended Stay, since Extended Stay is not a good hotel. But this one does not even seem to try to be the not-so-great hotel it should be. I compliment Shay at the front desk and the laundry woman mentioned above whose name I did not get. I should criticize anyone else-- present or not. Find something else. The very nice Sheraton quite close by was only fifteen dollars a night more. If I had not prepaid, I would have gladly paid that much to escape Extended Stay. I doubt I'll be staying in any Extended Stay again, unless it's VERY cheap and the reviews of the hotel in question are good. I will certainly not be trusting any Priceline "Express Deals."MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in Extended Stay Americas and know what I'm getting into. They are not very good, but they are what they are and are generally honest about it. Not this one.
+I would recommend that any traveler stay somewhere else. I would have-- and should have, except that I was stuck there due to a prepaid Priceline "Express Deal" that completely misrepresented the comparable hotels to this one.  I would have moved to any of those comparables in a minute if Priceline had exercised fair customer service and backed up its comparison to them. Priceline did not.
+Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after...I have stayed in Extended Stay Americas and know what I'm getting into. They are not very good, but they are what they are and are generally honest about it. Not this one.I would recommend that any traveler stay somewhere else. I would have-- and should have, except that I was stuck there due to a prepaid Priceline "Express Deal" that completely misrepresented the comparable hotels to this one.  I would have moved to any of those comparables in a minute if Priceline had exercised fair customer service and backed up its comparison to them. Priceline did not.Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after 8 pm on August 19, the front desk clerk was sitting (yes sitting) on the front curb right in the middle of the walkway to the front door of the hotel, smoking. Like everyone else-- but me-- he threw his butt somewhere in front of the hotel when he went back inside.Here is a list of other things that should make you avoid staying here. I was traveling with my mother and asked for a room with two beds. They said they did not have any such rooms, so I slept on the sofabed. It was the worst sofabed I've ever slept on in my life. In retrospect, I probably would have been much better off on the floor.They gave me linens and a blanket for the sofabed. The blanket was wrapped in plastic. When I put it on the sofabed, I saw two dark blobs on it. I looked closely and discovered two clumps of hair  like the clumps you would find in a shower drain. I took the blanket downstairs and showed it to the woman at the desk (who was a laundry person and didn't speak English). She made a "eeew, yuck" face but told me that she did not have any blankets. She gave me a bedspread.When we checked in, a cockroach ran across the floor behind the clerk.They did not clean our room the entire time we were there. We only had one trash can for a room with a kitchen and a bathroom. I know Extended Stay does not clean every day, but I thought once in four nights might have been reasonable and I think one trash can is not enough for a room that size with a kitchen.Wifi is very slow if you choose the free version. You can pay for faster wifi. I did not. Why would they try to gouge guests on wifi in this day and age? It just does not speak well of the company. It's like the poor service and customer gouging one expects flying economy on a bad airline.The entrance is dirty and tattered. The floor and mats are dirty, and the mats look worn out. The room, bathroom, and kitchen are actually not bad. How hard would it be to keep the front entrance at least presentable? It never was for our four night stay.We checked out at 4 am to go to the airport. I say checked out, but nobody was at the front desk and nobody answered the phone next to the little sign saying to call if nobody is there. I haven't checked the bill online but hope I didn't get charged a special "self-checkout" fee or something.I did notice, as I waited for the cab, a car parked in a disabled parking spot in front of the hotel. The car did not have a disability placard. My guess would be that the car belongs to the front desk person I couldn't find to check out. That's the kind of place this hotel is.I blame Priceline more than Extended Stay, since Extended Stay is not a good hotel. But this one does not even seem to try to be the not-so-great hotel it should be. I compliment Shay at the front desk and the laundry woman mentioned above whose name I did not get. I should criticize anyone else-- present or not. Find something else. The very nice Sheraton quite close by was only fifteen dollars a night more. If I had not prepaid, I would have gladly paid that much to escape Extended Stay. I doubt I'll be staying in any Extended Stay again, unless it's VERY cheap and the reviews of the hotel in question are good. I will certainly not be trusting any Priceline "Express Deals."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r504343154-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>504343154</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Things that go thump.....</t>
+  </si>
+  <si>
+    <t>Remember that song, "knock 3 times on the ceiling...?"   Or that saying, "things that go thump in the night?"  This place fits the bill. I stayed on the 2nd floor and heard thumping overhead for about an hour. Two calls to the front desk didn't stop it. Not a cup in the place. No shampoo. Motel 6 has better amenities. The room was spacious, the bed ok. Would I go back?  Not on your life. The night clerk was friendly. When I checked out the next morning, the person on the front desk literally grunted at me when I said I was checking out. No more Extended Stay, anywhere, ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Remember that song, "knock 3 times on the ceiling...?"   Or that saying, "things that go thump in the night?"  This place fits the bill. I stayed on the 2nd floor and heard thumping overhead for about an hour. Two calls to the front desk didn't stop it. Not a cup in the place. No shampoo. Motel 6 has better amenities. The room was spacious, the bed ok. Would I go back?  Not on your life. The night clerk was friendly. When I checked out the next morning, the person on the front desk literally grunted at me when I said I was checking out. No more Extended Stay, anywhere, ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r502799338-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>502799338</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Nothing great</t>
+  </si>
+  <si>
+    <t>The bed was super uncomfortable. Stayed here 2 nights and totally regretted every minute of being there.  The room was decent and the 2 female staff members I interacted with were everything but nice and helpful.  The guy at check out was super nice.  I would never stay at an extended stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>The bed was super uncomfortable. Stayed here 2 nights and totally regretted every minute of being there.  The room was decent and the 2 female staff members I interacted with were everything but nice and helpful.  The guy at check out was super nice.  I would never stay at an extended stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r502497178-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>502497178</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Best service!</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 months working.  Greg the manager, Kaitlin and Shay are THE BEST staff members I have personally dealt with.  Attitude is great and they are more than helpful.  Bed isn't the best but not terrible.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 months working.  Greg the manager, Kaitlin and Shay are THE BEST staff members I have personally dealt with.  Attitude is great and they are more than helpful.  Bed isn't the best but not terrible.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r471035667-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>471035667</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel but need lot of improvement</t>
+  </si>
+  <si>
+    <t>The room and hotel is clean but provides minimum basic services. When I got the first room, the wash basin had only cold water while shower only hot !!!! After complaining they promptly provided another room by afternoon. The staff was very cooperative. Both rooms were very clean and nicely arranged. But the breakfast is almost not there. Its just muffins and breakfast bar. That too they had run out of it over the weekend. They remove coffee machines after 9 am. They also advertise as Newly Renovated ... may be a few rooms, I didnt really feel anything "New".They ran out of toilet papers as well on the weekend. So bring your own :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>The room and hotel is clean but provides minimum basic services. When I got the first room, the wash basin had only cold water while shower only hot !!!! After complaining they promptly provided another room by afternoon. The staff was very cooperative. Both rooms were very clean and nicely arranged. But the breakfast is almost not there. Its just muffins and breakfast bar. That too they had run out of it over the weekend. They remove coffee machines after 9 am. They also advertise as Newly Renovated ... may be a few rooms, I didnt really feel anything "New".They ran out of toilet papers as well on the weekend. So bring your own :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r469362444-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>469362444</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So my stay started off ok. The hotel is clean, close to restaurants and stores, and the room is fine. Although I think it's weird that you have to order things for the kitchen (coffeemaker, cups, plates, towels, etc.). The day I stayed here there was no breakfast and since there are no cups I can't even make coffee. I'm starving as I write this.  no time to go out for breakfast before work since I was expecting a grab and go breakfast as advertised. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r467080850-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>467080850</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Best location Best price</t>
+  </si>
+  <si>
+    <t>We got a steal on this hotel by using a 3rd party website "secret deal" type of booking. We got lucky on this one.  The location was perfect. Right across from The Viewhouse and IHOP for weekend festivities. The light rail is not close so you would probably need a car. The hotel itself was actually nicer than expected. The room was big and clean.  The kitchen was full size but basic. You have to ask the front desk if you need plates or cookware. We stayed for 10 days and were very comfortable the whole time.  Our room didn't get cleaned during our stay, which I belive is normal.  We appreciated that as we didn't want anyone disturbing us during the day.  Reception was super nice about replenishing towels or whatever we needed. One morning we checked out the continental breakfast which included oatmeal, granola bard, muffins and coffee.  Every other morning it seemed like the food went fast and coffee was gone or put away by 9 or 10.  Not the best for night owls.  Otherwise, everything was perfect.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We got a steal on this hotel by using a 3rd party website "secret deal" type of booking. We got lucky on this one.  The location was perfect. Right across from The Viewhouse and IHOP for weekend festivities. The light rail is not close so you would probably need a car. The hotel itself was actually nicer than expected. The room was big and clean.  The kitchen was full size but basic. You have to ask the front desk if you need plates or cookware. We stayed for 10 days and were very comfortable the whole time.  Our room didn't get cleaned during our stay, which I belive is normal.  We appreciated that as we didn't want anyone disturbing us during the day.  Reception was super nice about replenishing towels or whatever we needed. One morning we checked out the continental breakfast which included oatmeal, granola bard, muffins and coffee.  Every other morning it seemed like the food went fast and coffee was gone or put away by 9 or 10.  Not the best for night owls.  Otherwise, everything was perfect.  More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +860,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +892,855 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_82.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_82.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r610356400-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>225304</t>
+  </si>
+  <si>
+    <t>610356400</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>WHAT A JOKE COPS CENTRAL</t>
+  </si>
+  <si>
+    <t>Haha. This motel is a joke. Nasty. They have a ton of trash in there trash rooms. No one cares about the property worth a damn!!! We saw the front desk manager and girl up front kissing. And coming out of a room. Come to look out our window in the morning we saw Greg( the manager) And Shay or Shae making out. Not once not twice we saw this happen three times!!! One day we turned the corner and they where making out and hugging by room 102 and 101. This was no more then 5 minutes after we saw them leaving the room. This is no way to run a motel. This is not a place where relationships should be happening. Nor should things such as the front desk girl which I may add was rude as can be. But you know this was just one of my many complaints. The room was clean so good job housekeeping. But the laundry room was trashed with peoples clothes and once again trash. The hallways smelt bad. Dogs barking all night. DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>Haha. This motel is a joke. Nasty. They have a ton of trash in there trash rooms. No one cares about the property worth a damn!!! We saw the front desk manager and girl up front kissing. And coming out of a room. Come to look out our window in the morning we saw Greg( the manager) And Shay or Shae making out. Not once not twice we saw this happen three times!!! One day we turned the corner and they where making out and hugging by room 102 and 101. This was no more then 5 minutes after we saw them leaving the room. This is no way to run a motel. This is not a place where relationships should be happening. Nor should things such as the front desk girl which I may add was rude as can be. But you know this was just one of my many complaints. The room was clean so good job housekeeping. But the laundry room was trashed with peoples clothes and once again trash. The hallways smelt bad. Dogs barking all night. DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r608139198-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>608139198</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>This wasn’t my first choice in hotels, and this stay didn’t change that.</t>
+  </si>
+  <si>
+    <t>There was nothing terrible about this property, but there was nothing spectacular about it either.The room was clean, but dated.TV worked, but picture quality was terrible.I’m over 6 ft. tall, so they get bonus points for shower height!They advertise breakfast - I don’t consider a variety of granola bars or packets of oatmeal breakfast.  And that wasn’t available one of the two days I stayed because of a delivery issue.Front desk staff was friendly and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>There was nothing terrible about this property, but there was nothing spectacular about it either.The room was clean, but dated.TV worked, but picture quality was terrible.I’m over 6 ft. tall, so they get bonus points for shower height!They advertise breakfast - I don’t consider a variety of granola bars or packets of oatmeal breakfast.  And that wasn’t available one of the two days I stayed because of a delivery issue.Front desk staff was friendly and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r594367913-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>594367913</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>OK but a little odd</t>
+  </si>
+  <si>
+    <t>Nice huge clean room(s), but the couch was missing (had to sit on the floor of the main room to watch the World Cup), the dresser drawers in the bedroom were broken, and the elevator was out of service for what appeared to be a period of a few weeks. We were on the third floor and didn't mind the climb, but maybe the next person would. Can't say that I was offended by our stay, but it was a little odd. Glad I got it super cheap thru travelocity.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Nice huge clean room(s), but the couch was missing (had to sit on the floor of the main room to watch the World Cup), the dresser drawers in the bedroom were broken, and the elevator was out of service for what appeared to be a period of a few weeks. We were on the third floor and didn't mind the climb, but maybe the next person would. Can't say that I was offended by our stay, but it was a little odd. Glad I got it super cheap thru travelocity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r552681965-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>552681965</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Matthew stays at  the cleanest  and newest extended stay DTC!!</t>
+  </si>
+  <si>
+    <t>Yes I was originally having some troubles booking the room but with some quick suggestions from Daniel I found a way to comfortably and safely get into my room and have a wonderful visit to the DTC area thanks Daniel. One day this Kid is going to have his own extended stay hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Yes I was originally having some troubles booking the room but with some quick suggestions from Daniel I found a way to comfortably and safely get into my room and have a wonderful visit to the DTC area thanks Daniel. One day this Kid is going to have his own extended stay hotelMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r551632945-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
   </si>
   <si>
-    <t>33412</t>
-  </si>
-  <si>
-    <t>225304</t>
-  </si>
-  <si>
     <t>551632945</t>
   </si>
   <si>
@@ -174,9 +288,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded January 5, 2018</t>
   </si>
   <si>
@@ -201,9 +312,6 @@
     <t>This is a very basic, bare bones hotel with the advantage of a full-size refrigerator and two hot plates as well as a microwave. It was perfectly clean and comfortable despite the chipped bath tile and bare bones walls painted a peculiar shade of beige.  If you want rock bottom cheapest and a place to sleep,this is perfectly fine.  Plus it is a two minute walk from a lovely breakfast place, Urban Egg.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded December 4, 2017</t>
   </si>
   <si>
@@ -241,6 +349,66 @@
   </si>
   <si>
     <t>I really enjoyed my trip thanks to these guys I will come and stay with them again anytime! The cleanest and best service I have found in a hotel this year!! Even friends of mine that came to visit me while I was close to them said they really enjoyed the location and cleanliness of the room! I was really surprised and proud that their overall service and cleanliness was the best of even some 4 star hotels I have stayed at! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r537902781-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>537902781</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome Staff terrible wifi</t>
+  </si>
+  <si>
+    <t>The staff is great, the place is clean and well kept.  Grab and go breakfast is just that, don't expect any type of spread.  I would suggest fruit or something healthier to be added (just a suggestion) My biggest concern is the WIFI is TERRIBLE.  There is an option for paying for WIFI upgrade (3.99 per day) but I found it just as easy to use my hotspot.  Being that I am here to do business, it is very important to have a reliable WIFI, so when you advertise FREE WIFI, you should not save the crappy WIFI forcing the customers to BUY the better one if they are staying there during business trips.  The room is spacious, clean and the staff is very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>The staff is great, the place is clean and well kept.  Grab and go breakfast is just that, don't expect any type of spread.  I would suggest fruit or something healthier to be added (just a suggestion) My biggest concern is the WIFI is TERRIBLE.  There is an option for paying for WIFI upgrade (3.99 per day) but I found it just as easy to use my hotspot.  Being that I am here to do business, it is very important to have a reliable WIFI, so when you advertise FREE WIFI, you should not save the crappy WIFI forcing the customers to BUY the better one if they are staying there during business trips.  The room is spacious, clean and the staff is very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r532489694-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>532489694</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Yikes</t>
+  </si>
+  <si>
+    <t>I emailed the General Manager on July 31, 2017 after our stay and never heard back so now I thought I'd share with you all. We stayed with them in July and wanted to provide some feedback. 
+First of all, Claire from the front desk was extremely helpful, understanding, knowledgeable and kind. She really is a wonderful team member who goes out of her way for guests.
+I was also very happy with the size of the suite we were in and that you allowed pets. It's bigger than most long stay hotel rooms, which is great. 
+My main concern is the cleanliness of the hotel as a whole. When we arrived, we went to our room and checked the bed and the fitted sheet and mattress pad was downright disgusting. There were stains (yellow, red, brown), hairs, crumbs, and some sort of black either coffee grounds or something similar all over that sheet. It clearly had not been cleaned. When we asked the front desk, they were very accommodating and offered new bedding or a different room - we didn't want to be a burden so we asked for new bedding. When she came in to change the sheets, she said she could only replace the top sheet and there was "nothing she could do about that" (meaning the fitted sheet/mattress pad). She offered us a different room (which we appreciated so much), but it was alarming that there...I emailed the General Manager on July 31, 2017 after our stay and never heard back so now I thought I'd share with you all. We stayed with them in July and wanted to provide some feedback. First of all, Claire from the front desk was extremely helpful, understanding, knowledgeable and kind. She really is a wonderful team member who goes out of her way for guests.I was also very happy with the size of the suite we were in and that you allowed pets. It's bigger than most long stay hotel rooms, which is great. My main concern is the cleanliness of the hotel as a whole. When we arrived, we went to our room and checked the bed and the fitted sheet and mattress pad was downright disgusting. There were stains (yellow, red, brown), hairs, crumbs, and some sort of black either coffee grounds or something similar all over that sheet. It clearly had not been cleaned. When we asked the front desk, they were very accommodating and offered new bedding or a different room - we didn't want to be a burden so we asked for new bedding. When she came in to change the sheets, she said she could only replace the top sheet and there was "nothing she could do about that" (meaning the fitted sheet/mattress pad). She offered us a different room (which we appreciated so much), but it was alarming that there was nothing she could do about the sheet/pad - which led me to think someone else will have to sleep on it. Our new room was okay, however, we found a small bottle of lube under the air conditioner, which, again, led me to believe that our room has not been cleaned elsewhere. Nothing is better than finding a half empty bottle of lube. Outside of our room, the elevator almost always had trash or sticky floors with whatever was spilled in it - which I saw staff ignore, and the back entrance had trash set there by guests (which I think is beyond lazy on their part and they are part of the problem), but it went ignored for days/weeks at a time. One week I saw a Diet Coke box and a bottle of vodka there amongst other things for at least 4 days. The following week there was trash, along with something melting there for 3 days. There was pee on the stairs for over a week. There might as well have not even been a hospitality staff. It's frustrating that the gym didn't open until 8 a.m. as well - most people can't workout that late if they are working. It is a little crazy to me that it doesn't have any water fountain or anything to clean the machines in it (again, cleanliness). The laundry room is expensive - $4 for one load is a lot - most hotels we stayed at charged $3 for a full load. I do appreciate the fact that you offer quarters, however, as most hotels leave us SOL on that one wondering where we can get mass amounts of quarters outside of a car wash. The Grab and Go breakfast is a joke - we stayed at the Hawthorne Suites for the same price as Extended Stay and it was significantly better, cleaner, and they offered us a HOT breakfast every morning. Their gym was open 24/7.Long story short, Claire is wonderful, accommodations (gym, laundry, breakfast, etc) can be significantly improved, and the cleanliness is easily the worst of any hotel I've stayed at by a long shot. This was definitely an experience I would like to forget and won't recommend to other people looking for hotels in Denver and I will avoid Extended Stays in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>I emailed the General Manager on July 31, 2017 after our stay and never heard back so now I thought I'd share with you all. We stayed with them in July and wanted to provide some feedback. 
+First of all, Claire from the front desk was extremely helpful, understanding, knowledgeable and kind. She really is a wonderful team member who goes out of her way for guests.
+I was also very happy with the size of the suite we were in and that you allowed pets. It's bigger than most long stay hotel rooms, which is great. 
+My main concern is the cleanliness of the hotel as a whole. When we arrived, we went to our room and checked the bed and the fitted sheet and mattress pad was downright disgusting. There were stains (yellow, red, brown), hairs, crumbs, and some sort of black either coffee grounds or something similar all over that sheet. It clearly had not been cleaned. When we asked the front desk, they were very accommodating and offered new bedding or a different room - we didn't want to be a burden so we asked for new bedding. When she came in to change the sheets, she said she could only replace the top sheet and there was "nothing she could do about that" (meaning the fitted sheet/mattress pad). She offered us a different room (which we appreciated so much), but it was alarming that there...I emailed the General Manager on July 31, 2017 after our stay and never heard back so now I thought I'd share with you all. We stayed with them in July and wanted to provide some feedback. First of all, Claire from the front desk was extremely helpful, understanding, knowledgeable and kind. She really is a wonderful team member who goes out of her way for guests.I was also very happy with the size of the suite we were in and that you allowed pets. It's bigger than most long stay hotel rooms, which is great. My main concern is the cleanliness of the hotel as a whole. When we arrived, we went to our room and checked the bed and the fitted sheet and mattress pad was downright disgusting. There were stains (yellow, red, brown), hairs, crumbs, and some sort of black either coffee grounds or something similar all over that sheet. It clearly had not been cleaned. When we asked the front desk, they were very accommodating and offered new bedding or a different room - we didn't want to be a burden so we asked for new bedding. When she came in to change the sheets, she said she could only replace the top sheet and there was "nothing she could do about that" (meaning the fitted sheet/mattress pad). She offered us a different room (which we appreciated so much), but it was alarming that there was nothing she could do about the sheet/pad - which led me to think someone else will have to sleep on it. Our new room was okay, however, we found a small bottle of lube under the air conditioner, which, again, led me to believe that our room has not been cleaned elsewhere. Nothing is better than finding a half empty bottle of lube. Outside of our room, the elevator almost always had trash or sticky floors with whatever was spilled in it - which I saw staff ignore, and the back entrance had trash set there by guests (which I think is beyond lazy on their part and they are part of the problem), but it went ignored for days/weeks at a time. One week I saw a Diet Coke box and a bottle of vodka there amongst other things for at least 4 days. The following week there was trash, along with something melting there for 3 days. There was pee on the stairs for over a week. There might as well have not even been a hospitality staff. It's frustrating that the gym didn't open until 8 a.m. as well - most people can't workout that late if they are working. It is a little crazy to me that it doesn't have any water fountain or anything to clean the machines in it (again, cleanliness). The laundry room is expensive - $4 for one load is a lot - most hotels we stayed at charged $3 for a full load. I do appreciate the fact that you offer quarters, however, as most hotels leave us SOL on that one wondering where we can get mass amounts of quarters outside of a car wash. The Grab and Go breakfast is a joke - we stayed at the Hawthorne Suites for the same price as Extended Stay and it was significantly better, cleaner, and they offered us a HOT breakfast every morning. Their gym was open 24/7.Long story short, Claire is wonderful, accommodations (gym, laundry, breakfast, etc) can be significantly improved, and the cleanliness is easily the worst of any hotel I've stayed at by a long shot. This was definitely an experience I would like to forget and won't recommend to other people looking for hotels in Denver and I will avoid Extended Stays in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r524128654-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
@@ -328,6 +496,57 @@
 Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after...I have stayed in Extended Stay Americas and know what I'm getting into. They are not very good, but they are what they are and are generally honest about it. Not this one.I would recommend that any traveler stay somewhere else. I would have-- and should have, except that I was stuck there due to a prepaid Priceline "Express Deal" that completely misrepresented the comparable hotels to this one.  I would have moved to any of those comparables in a minute if Priceline had exercised fair customer service and backed up its comparison to them. Priceline did not.Let's start with smoking. I am a smoker and understand that it is a non-smoking hotel. I prefer to stay in non-smoking hotels, and have no problem with smoking outside. At this hotel, I immediately noticed cigarette butts-- literally thousands of them-- all over the property outside the hotel. I mentioned this to the front desk and suggested they should put an ashtray, or several, out there. After all, people were filling the sidewalk, parking lot, potted plants, plant borders, swimming pool area, and every other space around the hotel with cigarette butts. The answer was that it was a non-smoking PROPERTY, and anyone smoking on the property would be fined $250, so they had a no ashtray policy. I suggested it wasn't working, but. I did not smoke on the property. The desk clerk sure did. At a bit after 8 pm on August 19, the front desk clerk was sitting (yes sitting) on the front curb right in the middle of the walkway to the front door of the hotel, smoking. Like everyone else-- but me-- he threw his butt somewhere in front of the hotel when he went back inside.Here is a list of other things that should make you avoid staying here. I was traveling with my mother and asked for a room with two beds. They said they did not have any such rooms, so I slept on the sofabed. It was the worst sofabed I've ever slept on in my life. In retrospect, I probably would have been much better off on the floor.They gave me linens and a blanket for the sofabed. The blanket was wrapped in plastic. When I put it on the sofabed, I saw two dark blobs on it. I looked closely and discovered two clumps of hair  like the clumps you would find in a shower drain. I took the blanket downstairs and showed it to the woman at the desk (who was a laundry person and didn't speak English). She made a "eeew, yuck" face but told me that she did not have any blankets. She gave me a bedspread.When we checked in, a cockroach ran across the floor behind the clerk.They did not clean our room the entire time we were there. We only had one trash can for a room with a kitchen and a bathroom. I know Extended Stay does not clean every day, but I thought once in four nights might have been reasonable and I think one trash can is not enough for a room that size with a kitchen.Wifi is very slow if you choose the free version. You can pay for faster wifi. I did not. Why would they try to gouge guests on wifi in this day and age? It just does not speak well of the company. It's like the poor service and customer gouging one expects flying economy on a bad airline.The entrance is dirty and tattered. The floor and mats are dirty, and the mats look worn out. The room, bathroom, and kitchen are actually not bad. How hard would it be to keep the front entrance at least presentable? It never was for our four night stay.We checked out at 4 am to go to the airport. I say checked out, but nobody was at the front desk and nobody answered the phone next to the little sign saying to call if nobody is there. I haven't checked the bill online but hope I didn't get charged a special "self-checkout" fee or something.I did notice, as I waited for the cab, a car parked in a disabled parking spot in front of the hotel. The car did not have a disability placard. My guess would be that the car belongs to the front desk person I couldn't find to check out. That's the kind of place this hotel is.I blame Priceline more than Extended Stay, since Extended Stay is not a good hotel. But this one does not even seem to try to be the not-so-great hotel it should be. I compliment Shay at the front desk and the laundry woman mentioned above whose name I did not get. I should criticize anyone else-- present or not. Find something else. The very nice Sheraton quite close by was only fifteen dollars a night more. If I had not prepaid, I would have gladly paid that much to escape Extended Stay. I doubt I'll be staying in any Extended Stay again, unless it's VERY cheap and the reviews of the hotel in question are good. I will certainly not be trusting any Priceline "Express Deals."More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r505733779-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>505733779</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Denver Tech Center South on Easter Ave.</t>
+  </si>
+  <si>
+    <t>The service and quality greatly improved over my 4 month stay under the direction of the new manage Greg. Highly recommend this hotel, and was very satisfied. Room service was great, room was great, and the staff were excellent. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The service and quality greatly improved over my 4 month stay under the direction of the new manage Greg. Highly recommend this hotel, and was very satisfied. Room service was great, room was great, and the staff were excellent. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r504526665-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>504526665</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Decent stay but not 2.5 stars</t>
+  </si>
+  <si>
+    <t>This trip required 5 rooms to accommodate our group. Typically I choose Priceline 2.5 star properties as they are generally nice and offer a decent breakfast.  This Extended Stay should be classed as 2 star. It worked out fine and the staff was great Breakfast was meager cereal bars and instant oatmeal only with hot water and coffee. On Sunday there was no coffee.  I asked about it at the desk and was told that they had run out.  One would think that someone could have gone to a nearby grocery to buy more but that was not done.In summary it was OK but not a 2.5 star propertyMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>This trip required 5 rooms to accommodate our group. Typically I choose Priceline 2.5 star properties as they are generally nice and offer a decent breakfast.  This Extended Stay should be classed as 2 star. It worked out fine and the staff was great Breakfast was meager cereal bars and instant oatmeal only with hot water and coffee. On Sunday there was no coffee.  I asked about it at the desk and was told that they had run out.  One would think that someone could have gone to a nearby grocery to buy more but that was not done.In summary it was OK but not a 2.5 star propertyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r504343154-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -343,9 +562,6 @@
     <t>Remember that song, "knock 3 times on the ceiling...?"   Or that saying, "things that go thump in the night?"  This place fits the bill. I stayed on the 2nd floor and heard thumping overhead for about an hour. Two calls to the front desk didn't stop it. Not a cup in the place. No shampoo. Motel 6 has better amenities. The room was spacious, the bed ok. Would I go back?  Not on your life. The night clerk was friendly. When I checked out the next morning, the person on the front desk literally grunted at me when I said I was checking out. No more Extended Stay, anywhere, ever!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 22, 2017</t>
   </si>
   <si>
@@ -397,9 +613,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 16, 2017</t>
   </si>
   <si>
@@ -409,6 +622,60 @@
     <t>Stayed here for 2 months working.  Greg the manager, Kaitlin and Shay are THE BEST staff members I have personally dealt with.  Attitude is great and they are more than helpful.  Bed isn't the best but not terrible.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r498091572-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>498091572</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Extended stay hotel rooms</t>
+  </si>
+  <si>
+    <t>I've stayed at several extended stay hotels, that's the reason I chose to stay here. Great location right off the highway. Many restaurants are close, only major complaints I have is the bed was extremely hard and the bathroom had hair on the floor. But I did love the room, it was clean, had nice clean carpet and the shower is handicap accessible which is awesome!! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at several extended stay hotels, that's the reason I chose to stay here. Great location right off the highway. Many restaurants are close, only major complaints I have is the bed was extremely hard and the bathroom had hair on the floor. But I did love the room, it was clean, had nice clean carpet and the shower is handicap accessible which is awesome!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r475318360-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>475318360</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean &amp; well appointed!</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly and welcoming. There was a cat on the couch that belonged to a guest--love a hotel that welcomes pets! Convenient location that was easy to get to and near several good places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly and welcoming. There was a cat on the couch that belonged to a guest--love a hotel that welcomes pets! Convenient location that was easy to get to and near several good places to eat.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r471035667-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -424,9 +691,6 @@
     <t>The room and hotel is clean but provides minimum basic services. When I got the first room, the wash basin had only cold water while shower only hot !!!! After complaining they promptly provided another room by afternoon. The staff was very cooperative. Both rooms were very clean and nicely arranged. But the breakfast is almost not there. Its just muffins and breakfast bar. That too they had run out of it over the weekend. They remove coffee machines after 9 am. They also advertise as Newly Renovated ... may be a few rooms, I didnt really feel anything "New".They ran out of toilet papers as well on the weekend. So bring your own :-)MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded March 29, 2017</t>
   </si>
   <si>
@@ -467,6 +731,62 @@
   </si>
   <si>
     <t>We got a steal on this hotel by using a 3rd party website "secret deal" type of booking. We got lucky on this one.  The location was perfect. Right across from The Viewhouse and IHOP for weekend festivities. The light rail is not close so you would probably need a car. The hotel itself was actually nicer than expected. The room was big and clean.  The kitchen was full size but basic. You have to ask the front desk if you need plates or cookware. We stayed for 10 days and were very comfortable the whole time.  Our room didn't get cleaned during our stay, which I belive is normal.  We appreciated that as we didn't want anyone disturbing us during the day.  Reception was super nice about replenishing towels or whatever we needed. One morning we checked out the continental breakfast which included oatmeal, granola bard, muffins and coffee.  Every other morning it seemed like the food went fast and coffee was gone or put away by 9 or 10.  Not the best for night owls.  Otherwise, everything was perfect.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r460516336-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>460516336</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Newly Renovated, Weekly &amp; Monthly Discounts!!!</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of months in Jan. &amp; Feb. 2016, and we're very impressed with Manager Gregory Babikov. So we came back this year, Jan &amp; Feb 2017, and we're very happy to see that Gregory is still here continually making this Extended Stay even better, and they have renovated - it's very nice and comfortable.
+ Daniel, who does maintenance and more, is friendly, very knowledgeable, and efficient. The housekeepers do a great job - the rooms are clean and smell great, and the front desk clerks are professional and helpful.
+Guests have choices of weekly, biweekly, and monthly discounts. You don't have to keep track of points - everyone gets discounts. Sign up for their Perks program for free and get discounts at retailers and restaurants everywhere.
+New appliances, tv, carpet, furniture, sinks and cabinets, air conditioner / heaters - the rooms are totally brand new, along with new washing machines &amp; dryers in the laundry room. There's a gym, swimming pool, and a large, safe, and well lit parking lot. All of the full size aspects of the kitchen - sink, refrigerator, stove, and lots of kitchen cabinets makes our stay more comfortable. New microwaves, too.
+The linens and towels look new and are very clean. Pots &amp; pans, cutlery,  stoneware dishes, dish towels, and more are available at front desk for your stay.  The free Internet works great, even for watching movies and shows...We stayed here for a couple of months in Jan. &amp; Feb. 2016, and we're very impressed with Manager Gregory Babikov. So we came back this year, Jan &amp; Feb 2017, and we're very happy to see that Gregory is still here continually making this Extended Stay even better, and they have renovated - it's very nice and comfortable. Daniel, who does maintenance and more, is friendly, very knowledgeable, and efficient. The housekeepers do a great job - the rooms are clean and smell great, and the front desk clerks are professional and helpful. Guests have choices of weekly, biweekly, and monthly discounts. You don't have to keep track of points - everyone gets discounts. Sign up for their Perks program for free and get discounts at retailers and restaurants everywhere.New appliances, tv, carpet, furniture, sinks and cabinets, air conditioner / heaters - the rooms are totally brand new, along with new washing machines &amp; dryers in the laundry room. There's a gym, swimming pool, and a large, safe, and well lit parking lot. All of the full size aspects of the kitchen - sink, refrigerator, stove, and lots of kitchen cabinets makes our stay more comfortable. New microwaves, too.The linens and towels look new and are very clean. Pots &amp; pans, cutlery,  stoneware dishes, dish towels, and more are available at front desk for your stay.  The free Internet works great, even for watching movies and shows on the Internet, Netflix works great too, and they have a premium Internet option available if needed. There's breakfast available in the mornings in front lobby.Location is close to some good restaurants, close to bus &amp; rail, and conveniently close to Centennial Airport. Whether you stay one night, several nights, a week, or a month, the rates here at Extended Stay America are the best rates in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of months in Jan. &amp; Feb. 2016, and we're very impressed with Manager Gregory Babikov. So we came back this year, Jan &amp; Feb 2017, and we're very happy to see that Gregory is still here continually making this Extended Stay even better, and they have renovated - it's very nice and comfortable.
+ Daniel, who does maintenance and more, is friendly, very knowledgeable, and efficient. The housekeepers do a great job - the rooms are clean and smell great, and the front desk clerks are professional and helpful.
+Guests have choices of weekly, biweekly, and monthly discounts. You don't have to keep track of points - everyone gets discounts. Sign up for their Perks program for free and get discounts at retailers and restaurants everywhere.
+New appliances, tv, carpet, furniture, sinks and cabinets, air conditioner / heaters - the rooms are totally brand new, along with new washing machines &amp; dryers in the laundry room. There's a gym, swimming pool, and a large, safe, and well lit parking lot. All of the full size aspects of the kitchen - sink, refrigerator, stove, and lots of kitchen cabinets makes our stay more comfortable. New microwaves, too.
+The linens and towels look new and are very clean. Pots &amp; pans, cutlery,  stoneware dishes, dish towels, and more are available at front desk for your stay.  The free Internet works great, even for watching movies and shows...We stayed here for a couple of months in Jan. &amp; Feb. 2016, and we're very impressed with Manager Gregory Babikov. So we came back this year, Jan &amp; Feb 2017, and we're very happy to see that Gregory is still here continually making this Extended Stay even better, and they have renovated - it's very nice and comfortable. Daniel, who does maintenance and more, is friendly, very knowledgeable, and efficient. The housekeepers do a great job - the rooms are clean and smell great, and the front desk clerks are professional and helpful. Guests have choices of weekly, biweekly, and monthly discounts. You don't have to keep track of points - everyone gets discounts. Sign up for their Perks program for free and get discounts at retailers and restaurants everywhere.New appliances, tv, carpet, furniture, sinks and cabinets, air conditioner / heaters - the rooms are totally brand new, along with new washing machines &amp; dryers in the laundry room. There's a gym, swimming pool, and a large, safe, and well lit parking lot. All of the full size aspects of the kitchen - sink, refrigerator, stove, and lots of kitchen cabinets makes our stay more comfortable. New microwaves, too.The linens and towels look new and are very clean. Pots &amp; pans, cutlery,  stoneware dishes, dish towels, and more are available at front desk for your stay.  The free Internet works great, even for watching movies and shows on the Internet, Netflix works great too, and they have a premium Internet option available if needed. There's breakfast available in the mornings in front lobby.Location is close to some good restaurants, close to bus &amp; rail, and conveniently close to Centennial Airport. Whether you stay one night, several nights, a week, or a month, the rates here at Extended Stay America are the best rates in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225304-r444565526-Extended_Stay_America_Denver_Tech_Center_South-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>444565526</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Review &amp; Comment</t>
+  </si>
+  <si>
+    <t>I would personally like to thank the extended stay America hotel on Easter Ave. in the DTC area for showing such great customer service and being so professional during my stay here. The staff members who I would like to thank and recognize are and this is not in any orders with names are Daniel, Ryan and Greg, along with their female front desk associate who works the a.m. shift as well as the housekeeping team. GREAT JOB AS TEAM YOU ALL!!!!!!!!!!  Keep up the good work because it's definitely noticeable and your property deserves to be recognized. Peace &amp; Blessings people.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>I would personally like to thank the extended stay America hotel on Easter Ave. in the DTC area for showing such great customer service and being so professional during my stay here. The staff members who I would like to thank and recognize are and this is not in any orders with names are Daniel, Ryan and Greg, along with their female front desk associate who works the a.m. shift as well as the housekeeping team. GREAT JOB AS TEAM YOU ALL!!!!!!!!!!  Keep up the good work because it's definitely noticeable and your property deserves to be recognized. Peace &amp; Blessings people.More</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1321,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1009,22 +1329,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1075,34 +1385,28 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1118,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1127,53 +1431,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
         <v>72</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1189,7 +1479,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1198,47 +1488,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1254,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1263,43 +1549,53 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1315,7 +1611,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1324,47 +1620,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1678,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1389,32 +1687,42 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>107</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1462,35 +1770,37 @@
         <v>115</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1506,7 +1816,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1515,41 +1825,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1604,13 +1910,13 @@
         <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1620,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -1642,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1651,25 +1957,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1680,10 +1986,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -1699,7 +2009,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1708,22 +2018,22 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>144</v>
-      </c>
-      <c r="J13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
@@ -1731,16 +2041,792 @@
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36874</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
